--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bibhu Panda\eclipse-workspace\meraevent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB13D64-F567-4FF9-A0FA-21C2C22A518B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444111E8-9F2E-416B-8916-9883DE9B9606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <t>Test Ticket1</t>
   </si>
   <si>
-    <t>New EventBibhus</t>
+    <t>New EventBibhusqas</t>
   </si>
 </sst>
 </file>
